--- a/src/test/resources/issue/fastexcel/issue359/test_01.xlsx
+++ b/src/test/resources/issue/fastexcel/issue359/test_01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="31360"/>
+    <workbookView windowHeight="27520"/>
   </bookViews>
   <sheets>
     <sheet name="test_02" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>字符串标题</t>
+    <t>StringTitle</t>
   </si>
   <si>
-    <t>日期标题</t>
+    <t>DateTitle</t>
   </si>
   <si>
-    <t>数字标题</t>
+    <t>DoubleTitle</t>
   </si>
   <si>
     <t>String0</t>
@@ -1224,10 +1224,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.4134615384615" customWidth="1"/>
+    <col min="2" max="2" width="16.6634615384615" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
